--- a/05-exercise/handin/exercise5_1_computation_of_primes.xlsx
+++ b/05-exercise/handin/exercise5_1_computation_of_primes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janschill/projects/university/master/1_semester/pratical_concurrent_parallel_programming/exercises/05-exercise/handin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E7C7E9-5E50-BE45-BA78-8E1A7914648B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306538C-CB5C-9844-9368-CCECBE8F1464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{0672C443-9B58-1044-8702-9A0B21AC42ED}"/>
+    <workbookView xWindow="6400" yWindow="2400" windowWidth="38400" windowHeight="24000" xr2:uid="{0672C443-9B58-1044-8702-9A0B21AC42ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1902,7 +1902,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
